--- a/biology/Botanique/Reinette_Ananas/Reinette_Ananas.xlsx
+++ b/biology/Botanique/Reinette_Ananas/Reinette_Ananas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette Ananas est une variété de pomme obtenue aux Pays-Bas vers 1820.
 Ne pas confondre avec la pomme Ananas.
@@ -512,10 +524,12 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La reinette Ananas est une pomme assez petite, de forme conique allongée, à fine peau jaune ayant tendance au vert ponctué de marron et de gris. Nombreuses lenticelles en étoiles bien délimitées[1].
-Sa chair est blanc-jaune, tendre, juteuse, avec un parfum d'ananas à maturité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reinette Ananas est une pomme assez petite, de forme conique allongée, à fine peau jaune ayant tendance au vert ponctué de marron et de gris. Nombreuses lenticelles en étoiles bien délimitées.
+Sa chair est blanc-jaune, tendre, juteuse, avec un parfum d'ananas à maturité.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Descendant(s);
-Freiherr von Berlepsch[3]
+Freiherr von Berlepsch
 Roter Berlepsch</t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Variété diploïde
-Groupe de Floraison: B[4]; elle atteint la pleine floraison 3 jours avant Golden Delicious
+Groupe de Floraison: B; elle atteint la pleine floraison 3 jours avant Golden Delicious
 pollinisateurs: mieux pollinisée par Cortland, Empire, Belfleur Kitika, Golden Delicious, Grenadier, James Grieve, Lobo, Belle fleur jaune.</t>
         </is>
       </c>
@@ -608,13 +626,15 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fructification : croissance de type spur[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fructification : croissance de type spur
 Récolte : fin octobre
 Consommation : jusqu'à mi-février.
 Le 'Reinette Ananas' est un arbre très fertile mais peu vigoureux. Il doit être taillé court.
-Cette variété sera greffée de préférence sur porte-greffe nain pour obtenir de beaux fruits. En haute tige, mieux vaut le greffer en tête[2].
+Cette variété sera greffée de préférence sur porte-greffe nain pour obtenir de beaux fruits. En haute tige, mieux vaut le greffer en tête.
 Elle est peu sensible à la tavelure du pommier.
 </t>
         </is>
